--- a/server/src/uploads/excels/523625/exam.2.mini-test2.xlsx
+++ b/server/src/uploads/excels/523625/exam.2.mini-test2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\Project\toeic_prep\server\src\uploads\excels\523625\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73DC7FB6-0449-4430-A719-CA125FAF8EBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{218E804D-0E88-45EA-904F-382007DBBB4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25974" yWindow="-163" windowWidth="26301" windowHeight="14169" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-109" yWindow="-109" windowWidth="26301" windowHeight="14169" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2271,8 +2271,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L101"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1:L101"/>
+    <sheetView tabSelected="1" topLeftCell="A69" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="L75" sqref="L75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
@@ -4767,6 +4767,9 @@
       </c>
       <c r="J75" s="7" t="s">
         <v>16</v>
+      </c>
+      <c r="K75">
+        <v>7</v>
       </c>
       <c r="L75" t="s">
         <v>532</v>

--- a/server/src/uploads/excels/523625/exam.2.mini-test2.xlsx
+++ b/server/src/uploads/excels/523625/exam.2.mini-test2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\Project\toeic_prep\server\src\uploads\excels\523625\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{218E804D-0E88-45EA-904F-382007DBBB4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CF68880-DAD5-41B9-9221-ADFBCD23BD8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-109" yWindow="-109" windowWidth="26301" windowHeight="14169" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="750" uniqueCount="538">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="750" uniqueCount="553">
   <si>
     <t>number</t>
   </si>
@@ -1779,52 +1779,97 @@
     <t>category</t>
   </si>
   <si>
-    <t>detail</t>
-  </si>
-  <si>
-    <t>detail,inference</t>
-  </si>
-  <si>
-    <t>inference</t>
-  </si>
-  <si>
-    <t>vocabulary</t>
-  </si>
-  <si>
-    <t>real_situation</t>
-  </si>
-  <si>
-    <t>main_idea</t>
-  </si>
-  <si>
-    <t>tone_and_purpose,main_idea</t>
-  </si>
-  <si>
-    <t>tone_and_purpose</t>
-  </si>
-  <si>
-    <t>grammar,vocabulary</t>
-  </si>
-  <si>
-    <t>grammar</t>
-  </si>
-  <si>
-    <t>text_completion</t>
-  </si>
-  <si>
-    <t>text_completion,vocabulary,grammar</t>
-  </si>
-  <si>
-    <t>text_completion,vocabulary</t>
-  </si>
-  <si>
-    <t>text_completion,grammar,vocabulary</t>
-  </si>
-  <si>
-    <t>text_completion,grammar</t>
-  </si>
-  <si>
-    <t>connecting_ideas</t>
+    <t>ActionDescription</t>
+  </si>
+  <si>
+    <t>PersonPosition</t>
+  </si>
+  <si>
+    <t>EnvironmentSetting</t>
+  </si>
+  <si>
+    <t>YesNoQuestion</t>
+  </si>
+  <si>
+    <t>WhQuestion</t>
+  </si>
+  <si>
+    <t>ChoiceQuestion</t>
+  </si>
+  <si>
+    <t>ConversationPurpose</t>
+  </si>
+  <si>
+    <t>RelationshipInference</t>
+  </si>
+  <si>
+    <t>DetailComprehension</t>
+  </si>
+  <si>
+    <t>EmotionIntention</t>
+  </si>
+  <si>
+    <t>OutcomePredict</t>
+  </si>
+  <si>
+    <t>MainTopicIdentification</t>
+  </si>
+  <si>
+    <t>DetailExtraction</t>
+  </si>
+  <si>
+    <t>SpeakerIntention</t>
+  </si>
+  <si>
+    <t>ImpliedInformation</t>
+  </si>
+  <si>
+    <t>ContextRecognition</t>
+  </si>
+  <si>
+    <t>VocabularyFill</t>
+  </si>
+  <si>
+    <t>PrepositionChoice</t>
+  </si>
+  <si>
+    <t>TenseUsage</t>
+  </si>
+  <si>
+    <t>GrammarStructure</t>
+  </si>
+  <si>
+    <t>VerbFormSelection</t>
+  </si>
+  <si>
+    <t>VocabularyInsertion</t>
+  </si>
+  <si>
+    <t>LogicalCompletion</t>
+  </si>
+  <si>
+    <t>TextCoherence</t>
+  </si>
+  <si>
+    <t>SentenceRelationship</t>
+  </si>
+  <si>
+    <t>MainIdea</t>
+  </si>
+  <si>
+    <t>DetailInformation</t>
+  </si>
+  <si>
+    <t>WordInference</t>
+  </si>
+  <si>
+    <t>AuthorPerspective</t>
+  </si>
+  <si>
+    <t>ComparativeAnalysis</t>
+  </si>
+  <si>
+    <t>InformationRelationship</t>
   </si>
 </sst>
 </file>
@@ -1834,7 +1879,7 @@
   <numFmts count="1">
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1883,6 +1928,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFAA9BF5"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1937,7 +1988,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1965,6 +2016,9 @@
     <xf numFmtId="6" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="6" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2271,8 +2325,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A69" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="L75" sqref="L75"/>
+    <sheetView tabSelected="1" topLeftCell="A96" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="L101" sqref="L1:L101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
@@ -2359,7 +2413,7 @@
       <c r="K2">
         <v>1</v>
       </c>
-      <c r="L2" t="s">
+      <c r="L2" s="17" t="s">
         <v>522</v>
       </c>
     </row>
@@ -2589,8 +2643,8 @@
       <c r="K9">
         <v>2</v>
       </c>
-      <c r="L9" t="s">
-        <v>524</v>
+      <c r="L9" s="17" t="s">
+        <v>526</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="16.3" x14ac:dyDescent="0.3">
@@ -2621,8 +2675,8 @@
       <c r="K10">
         <v>2</v>
       </c>
-      <c r="L10" t="s">
-        <v>524</v>
+      <c r="L10" s="17" t="s">
+        <v>526</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="16.3" x14ac:dyDescent="0.3">
@@ -2653,8 +2707,8 @@
       <c r="K11">
         <v>2</v>
       </c>
-      <c r="L11" t="s">
-        <v>524</v>
+      <c r="L11" s="17" t="s">
+        <v>526</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="16.3" x14ac:dyDescent="0.3">
@@ -2685,8 +2739,8 @@
       <c r="K12">
         <v>2</v>
       </c>
-      <c r="L12" t="s">
-        <v>524</v>
+      <c r="L12" s="17" t="s">
+        <v>527</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="16.3" x14ac:dyDescent="0.3">
@@ -2717,8 +2771,8 @@
       <c r="K13">
         <v>2</v>
       </c>
-      <c r="L13" t="s">
-        <v>526</v>
+      <c r="L13" s="17" t="s">
+        <v>527</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="16.3" x14ac:dyDescent="0.3">
@@ -2749,8 +2803,8 @@
       <c r="K14">
         <v>2</v>
       </c>
-      <c r="L14" t="s">
-        <v>526</v>
+      <c r="L14" s="17" t="s">
+        <v>527</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="16.3" x14ac:dyDescent="0.3">
@@ -2781,8 +2835,8 @@
       <c r="K15">
         <v>2</v>
       </c>
-      <c r="L15" t="s">
-        <v>526</v>
+      <c r="L15" s="17" t="s">
+        <v>527</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="16.3" x14ac:dyDescent="0.3">
@@ -2817,8 +2871,8 @@
       <c r="K16">
         <v>3</v>
       </c>
-      <c r="L16" t="s">
-        <v>527</v>
+      <c r="L16" s="17" t="s">
+        <v>528</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="16.3" x14ac:dyDescent="0.3">
@@ -2851,8 +2905,8 @@
       <c r="K17">
         <v>3</v>
       </c>
-      <c r="L17" t="s">
-        <v>527</v>
+      <c r="L17" s="17" t="s">
+        <v>528</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="16.3" x14ac:dyDescent="0.3">
@@ -2885,8 +2939,8 @@
       <c r="K18">
         <v>3</v>
       </c>
-      <c r="L18" t="s">
-        <v>527</v>
+      <c r="L18" s="17" t="s">
+        <v>528</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="16.3" x14ac:dyDescent="0.3">
@@ -2920,7 +2974,7 @@
         <v>3</v>
       </c>
       <c r="L19" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="16.3" x14ac:dyDescent="0.3">
@@ -2954,7 +3008,7 @@
         <v>3</v>
       </c>
       <c r="L20" t="s">
-        <v>522</v>
+        <v>529</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="16.3" x14ac:dyDescent="0.3">
@@ -2988,7 +3042,7 @@
         <v>3</v>
       </c>
       <c r="L21" t="s">
-        <v>522</v>
+        <v>529</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="16.3" x14ac:dyDescent="0.3">
@@ -3021,8 +3075,8 @@
       <c r="K22">
         <v>3</v>
       </c>
-      <c r="L22" t="s">
-        <v>522</v>
+      <c r="L22" s="17" t="s">
+        <v>530</v>
       </c>
     </row>
     <row r="23" spans="1:12" ht="16.3" x14ac:dyDescent="0.3">
@@ -3055,8 +3109,8 @@
       <c r="K23">
         <v>3</v>
       </c>
-      <c r="L23" t="s">
-        <v>522</v>
+      <c r="L23" s="17" t="s">
+        <v>530</v>
       </c>
     </row>
     <row r="24" spans="1:12" ht="16.3" x14ac:dyDescent="0.3">
@@ -3089,8 +3143,8 @@
       <c r="K24">
         <v>3</v>
       </c>
-      <c r="L24" t="s">
-        <v>522</v>
+      <c r="L24" s="17" t="s">
+        <v>530</v>
       </c>
     </row>
     <row r="25" spans="1:12" ht="16.3" x14ac:dyDescent="0.3">
@@ -3123,8 +3177,8 @@
       <c r="K25">
         <v>3</v>
       </c>
-      <c r="L25" t="s">
-        <v>522</v>
+      <c r="L25" s="17" t="s">
+        <v>530</v>
       </c>
     </row>
     <row r="26" spans="1:12" ht="16.3" x14ac:dyDescent="0.3">
@@ -3157,8 +3211,8 @@
       <c r="K26">
         <v>3</v>
       </c>
-      <c r="L26" t="s">
-        <v>522</v>
+      <c r="L26" s="17" t="s">
+        <v>530</v>
       </c>
     </row>
     <row r="27" spans="1:12" ht="16.3" x14ac:dyDescent="0.3">
@@ -3191,8 +3245,8 @@
       <c r="K27">
         <v>3</v>
       </c>
-      <c r="L27" t="s">
-        <v>522</v>
+      <c r="L27" s="17" t="s">
+        <v>530</v>
       </c>
     </row>
     <row r="28" spans="1:12" ht="16.3" x14ac:dyDescent="0.3">
@@ -3225,8 +3279,8 @@
       <c r="K28">
         <v>3</v>
       </c>
-      <c r="L28" t="s">
-        <v>522</v>
+      <c r="L28" s="17" t="s">
+        <v>531</v>
       </c>
     </row>
     <row r="29" spans="1:12" ht="16.3" x14ac:dyDescent="0.3">
@@ -3259,8 +3313,8 @@
       <c r="K29">
         <v>3</v>
       </c>
-      <c r="L29" t="s">
-        <v>528</v>
+      <c r="L29" s="17" t="s">
+        <v>531</v>
       </c>
     </row>
     <row r="30" spans="1:12" ht="16.3" x14ac:dyDescent="0.3">
@@ -3293,8 +3347,8 @@
       <c r="K30">
         <v>3</v>
       </c>
-      <c r="L30" t="s">
-        <v>529</v>
+      <c r="L30" s="17" t="s">
+        <v>531</v>
       </c>
     </row>
     <row r="31" spans="1:12" ht="16.3" x14ac:dyDescent="0.3">
@@ -3327,8 +3381,8 @@
       <c r="K31">
         <v>3</v>
       </c>
-      <c r="L31" t="s">
-        <v>529</v>
+      <c r="L31" s="17" t="s">
+        <v>531</v>
       </c>
     </row>
     <row r="32" spans="1:12" ht="16.3" x14ac:dyDescent="0.3">
@@ -3361,8 +3415,8 @@
       <c r="K32">
         <v>3</v>
       </c>
-      <c r="L32" t="s">
-        <v>529</v>
+      <c r="L32" s="17" t="s">
+        <v>532</v>
       </c>
     </row>
     <row r="33" spans="1:12" ht="16.3" x14ac:dyDescent="0.3">
@@ -3395,8 +3449,8 @@
       <c r="K33">
         <v>3</v>
       </c>
-      <c r="L33" t="s">
-        <v>529</v>
+      <c r="L33" s="17" t="s">
+        <v>532</v>
       </c>
     </row>
     <row r="34" spans="1:12" ht="16.3" x14ac:dyDescent="0.3">
@@ -3429,8 +3483,8 @@
       <c r="K34">
         <v>4</v>
       </c>
-      <c r="L34" t="s">
-        <v>527</v>
+      <c r="L34" s="17" t="s">
+        <v>533</v>
       </c>
     </row>
     <row r="35" spans="1:12" ht="16.3" x14ac:dyDescent="0.3">
@@ -3463,8 +3517,8 @@
       <c r="K35">
         <v>4</v>
       </c>
-      <c r="L35" t="s">
-        <v>527</v>
+      <c r="L35" s="17" t="s">
+        <v>533</v>
       </c>
     </row>
     <row r="36" spans="1:12" ht="16.3" x14ac:dyDescent="0.3">
@@ -3497,8 +3551,8 @@
       <c r="K36">
         <v>4</v>
       </c>
-      <c r="L36" t="s">
-        <v>527</v>
+      <c r="L36" s="17" t="s">
+        <v>533</v>
       </c>
     </row>
     <row r="37" spans="1:12" ht="16.3" x14ac:dyDescent="0.3">
@@ -3533,8 +3587,8 @@
       <c r="K37">
         <v>4</v>
       </c>
-      <c r="L37" t="s">
-        <v>527</v>
+      <c r="L37" s="17" t="s">
+        <v>534</v>
       </c>
     </row>
     <row r="38" spans="1:12" ht="16.3" x14ac:dyDescent="0.3">
@@ -3567,8 +3621,8 @@
       <c r="K38">
         <v>4</v>
       </c>
-      <c r="L38" t="s">
-        <v>527</v>
+      <c r="L38" s="17" t="s">
+        <v>534</v>
       </c>
     </row>
     <row r="39" spans="1:12" ht="16.3" x14ac:dyDescent="0.3">
@@ -3601,8 +3655,8 @@
       <c r="K39">
         <v>4</v>
       </c>
-      <c r="L39" t="s">
-        <v>522</v>
+      <c r="L39" s="17" t="s">
+        <v>534</v>
       </c>
     </row>
     <row r="40" spans="1:12" ht="16.3" x14ac:dyDescent="0.3">
@@ -3635,8 +3689,8 @@
       <c r="K40">
         <v>4</v>
       </c>
-      <c r="L40" t="s">
-        <v>522</v>
+      <c r="L40" s="17" t="s">
+        <v>534</v>
       </c>
     </row>
     <row r="41" spans="1:12" ht="16.3" x14ac:dyDescent="0.3">
@@ -3669,8 +3723,8 @@
       <c r="K41">
         <v>4</v>
       </c>
-      <c r="L41" t="s">
-        <v>522</v>
+      <c r="L41" s="17" t="s">
+        <v>535</v>
       </c>
     </row>
     <row r="42" spans="1:12" ht="16.3" x14ac:dyDescent="0.3">
@@ -3703,8 +3757,8 @@
       <c r="K42">
         <v>4</v>
       </c>
-      <c r="L42" t="s">
-        <v>522</v>
+      <c r="L42" s="17" t="s">
+        <v>535</v>
       </c>
     </row>
     <row r="43" spans="1:12" ht="16.3" x14ac:dyDescent="0.3">
@@ -3737,8 +3791,8 @@
       <c r="K43">
         <v>4</v>
       </c>
-      <c r="L43" t="s">
-        <v>522</v>
+      <c r="L43" s="17" t="s">
+        <v>536</v>
       </c>
     </row>
     <row r="44" spans="1:12" ht="16.3" x14ac:dyDescent="0.3">
@@ -3771,8 +3825,8 @@
       <c r="K44">
         <v>4</v>
       </c>
-      <c r="L44" t="s">
-        <v>522</v>
+      <c r="L44" s="17" t="s">
+        <v>536</v>
       </c>
     </row>
     <row r="45" spans="1:12" ht="16.3" x14ac:dyDescent="0.3">
@@ -3805,8 +3859,8 @@
       <c r="K45">
         <v>4</v>
       </c>
-      <c r="L45" t="s">
-        <v>522</v>
+      <c r="L45" s="17" t="s">
+        <v>536</v>
       </c>
     </row>
     <row r="46" spans="1:12" ht="16.3" x14ac:dyDescent="0.3">
@@ -3839,8 +3893,8 @@
       <c r="K46">
         <v>4</v>
       </c>
-      <c r="L46" t="s">
-        <v>529</v>
+      <c r="L46" s="17" t="s">
+        <v>536</v>
       </c>
     </row>
     <row r="47" spans="1:12" ht="16.3" x14ac:dyDescent="0.3">
@@ -3873,8 +3927,8 @@
       <c r="K47">
         <v>4</v>
       </c>
-      <c r="L47" t="s">
-        <v>529</v>
+      <c r="L47" s="17" t="s">
+        <v>537</v>
       </c>
     </row>
     <row r="48" spans="1:12" ht="16.3" x14ac:dyDescent="0.3">
@@ -3907,8 +3961,8 @@
       <c r="K48">
         <v>4</v>
       </c>
-      <c r="L48" t="s">
-        <v>529</v>
+      <c r="L48" s="17" t="s">
+        <v>537</v>
       </c>
     </row>
     <row r="49" spans="1:12" ht="16.3" x14ac:dyDescent="0.3">
@@ -3941,8 +3995,8 @@
       <c r="K49">
         <v>4</v>
       </c>
-      <c r="L49" t="s">
-        <v>529</v>
+      <c r="L49" s="17" t="s">
+        <v>537</v>
       </c>
     </row>
     <row r="50" spans="1:12" ht="16.3" x14ac:dyDescent="0.3">
@@ -3975,8 +4029,8 @@
       <c r="K50">
         <v>4</v>
       </c>
-      <c r="L50" t="s">
-        <v>529</v>
+      <c r="L50" s="17" t="s">
+        <v>537</v>
       </c>
     </row>
     <row r="51" spans="1:12" ht="16.3" x14ac:dyDescent="0.3">
@@ -4009,8 +4063,8 @@
       <c r="K51">
         <v>4</v>
       </c>
-      <c r="L51" t="s">
-        <v>529</v>
+      <c r="L51" s="17" t="s">
+        <v>537</v>
       </c>
     </row>
     <row r="52" spans="1:12" ht="16.3" x14ac:dyDescent="0.3">
@@ -4043,8 +4097,8 @@
       <c r="K52">
         <v>5</v>
       </c>
-      <c r="L52" t="s">
-        <v>530</v>
+      <c r="L52" s="17" t="s">
+        <v>538</v>
       </c>
     </row>
     <row r="53" spans="1:12" ht="16.3" x14ac:dyDescent="0.3">
@@ -4075,8 +4129,8 @@
       <c r="K53">
         <v>5</v>
       </c>
-      <c r="L53" t="s">
-        <v>530</v>
+      <c r="L53" s="17" t="s">
+        <v>538</v>
       </c>
     </row>
     <row r="54" spans="1:12" ht="16.3" x14ac:dyDescent="0.3">
@@ -4107,8 +4161,8 @@
       <c r="K54">
         <v>5</v>
       </c>
-      <c r="L54" t="s">
-        <v>530</v>
+      <c r="L54" s="17" t="s">
+        <v>538</v>
       </c>
     </row>
     <row r="55" spans="1:12" ht="16.3" x14ac:dyDescent="0.3">
@@ -4139,8 +4193,8 @@
       <c r="K55">
         <v>5</v>
       </c>
-      <c r="L55" t="s">
-        <v>530</v>
+      <c r="L55" s="17" t="s">
+        <v>538</v>
       </c>
     </row>
     <row r="56" spans="1:12" ht="16.3" x14ac:dyDescent="0.3">
@@ -4171,8 +4225,8 @@
       <c r="K56">
         <v>5</v>
       </c>
-      <c r="L56" t="s">
-        <v>530</v>
+      <c r="L56" s="17" t="s">
+        <v>539</v>
       </c>
     </row>
     <row r="57" spans="1:12" ht="16.3" x14ac:dyDescent="0.3">
@@ -4203,8 +4257,8 @@
       <c r="K57">
         <v>5</v>
       </c>
-      <c r="L57" t="s">
-        <v>530</v>
+      <c r="L57" s="17" t="s">
+        <v>539</v>
       </c>
     </row>
     <row r="58" spans="1:12" ht="16.3" x14ac:dyDescent="0.3">
@@ -4235,8 +4289,8 @@
       <c r="K58">
         <v>5</v>
       </c>
-      <c r="L58" t="s">
-        <v>530</v>
+      <c r="L58" s="17" t="s">
+        <v>540</v>
       </c>
     </row>
     <row r="59" spans="1:12" ht="16.3" x14ac:dyDescent="0.3">
@@ -4267,8 +4321,8 @@
       <c r="K59">
         <v>5</v>
       </c>
-      <c r="L59" t="s">
-        <v>531</v>
+      <c r="L59" s="17" t="s">
+        <v>540</v>
       </c>
     </row>
     <row r="60" spans="1:12" ht="16.3" x14ac:dyDescent="0.3">
@@ -4299,8 +4353,8 @@
       <c r="K60">
         <v>5</v>
       </c>
-      <c r="L60" t="s">
-        <v>531</v>
+      <c r="L60" s="17" t="s">
+        <v>540</v>
       </c>
     </row>
     <row r="61" spans="1:12" ht="16.3" x14ac:dyDescent="0.3">
@@ -4331,8 +4385,8 @@
       <c r="K61">
         <v>5</v>
       </c>
-      <c r="L61" t="s">
-        <v>531</v>
+      <c r="L61" s="17" t="s">
+        <v>541</v>
       </c>
     </row>
     <row r="62" spans="1:12" ht="16.3" x14ac:dyDescent="0.3">
@@ -4363,8 +4417,8 @@
       <c r="K62">
         <v>5</v>
       </c>
-      <c r="L62" t="s">
-        <v>531</v>
+      <c r="L62" s="17" t="s">
+        <v>539</v>
       </c>
     </row>
     <row r="63" spans="1:12" ht="16.3" x14ac:dyDescent="0.3">
@@ -4395,8 +4449,8 @@
       <c r="K63">
         <v>5</v>
       </c>
-      <c r="L63" t="s">
-        <v>531</v>
+      <c r="L63" s="17" t="s">
+        <v>541</v>
       </c>
     </row>
     <row r="64" spans="1:12" ht="16.3" x14ac:dyDescent="0.3">
@@ -4427,8 +4481,8 @@
       <c r="K64">
         <v>5</v>
       </c>
-      <c r="L64" t="s">
-        <v>532</v>
+      <c r="L64" s="17" t="s">
+        <v>542</v>
       </c>
     </row>
     <row r="65" spans="1:12" ht="16.3" x14ac:dyDescent="0.3">
@@ -4459,8 +4513,8 @@
       <c r="K65">
         <v>5</v>
       </c>
-      <c r="L65" t="s">
-        <v>532</v>
+      <c r="L65" s="17" t="s">
+        <v>542</v>
       </c>
     </row>
     <row r="66" spans="1:12" ht="182.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -4493,8 +4547,8 @@
       <c r="K66">
         <v>6</v>
       </c>
-      <c r="L66" t="s">
-        <v>533</v>
+      <c r="L66" s="17" t="s">
+        <v>543</v>
       </c>
     </row>
     <row r="67" spans="1:12" ht="16.3" x14ac:dyDescent="0.3">
@@ -4523,8 +4577,8 @@
       <c r="K67">
         <v>6</v>
       </c>
-      <c r="L67" t="s">
-        <v>534</v>
+      <c r="L67" s="17" t="s">
+        <v>543</v>
       </c>
     </row>
     <row r="68" spans="1:12" ht="16.3" x14ac:dyDescent="0.3">
@@ -4553,8 +4607,8 @@
       <c r="K68">
         <v>6</v>
       </c>
-      <c r="L68" t="s">
-        <v>534</v>
+      <c r="L68" s="17" t="s">
+        <v>544</v>
       </c>
     </row>
     <row r="69" spans="1:12" ht="171.7" customHeight="1" x14ac:dyDescent="0.3">
@@ -4585,8 +4639,8 @@
       <c r="K69">
         <v>6</v>
       </c>
-      <c r="L69" t="s">
-        <v>534</v>
+      <c r="L69" s="17" t="s">
+        <v>545</v>
       </c>
     </row>
     <row r="70" spans="1:12" ht="16.3" x14ac:dyDescent="0.3">
@@ -4615,8 +4669,8 @@
       <c r="K70">
         <v>6</v>
       </c>
-      <c r="L70" t="s">
-        <v>534</v>
+      <c r="L70" s="17" t="s">
+        <v>546</v>
       </c>
     </row>
     <row r="71" spans="1:12" ht="16.3" x14ac:dyDescent="0.3">
@@ -4645,8 +4699,8 @@
       <c r="K71">
         <v>6</v>
       </c>
-      <c r="L71" t="s">
-        <v>534</v>
+      <c r="L71" s="17" t="s">
+        <v>543</v>
       </c>
     </row>
     <row r="72" spans="1:12" ht="169.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -4677,8 +4731,8 @@
       <c r="K72">
         <v>6</v>
       </c>
-      <c r="L72" t="s">
-        <v>535</v>
+      <c r="L72" s="17" t="s">
+        <v>544</v>
       </c>
     </row>
     <row r="73" spans="1:12" ht="16.3" x14ac:dyDescent="0.3">
@@ -4707,8 +4761,8 @@
       <c r="K73">
         <v>6</v>
       </c>
-      <c r="L73" t="s">
-        <v>536</v>
+      <c r="L73" s="17" t="s">
+        <v>546</v>
       </c>
     </row>
     <row r="74" spans="1:12" ht="16.3" x14ac:dyDescent="0.3">
@@ -4737,8 +4791,8 @@
       <c r="K74">
         <v>6</v>
       </c>
-      <c r="L74" t="s">
-        <v>536</v>
+      <c r="L74" s="17" t="s">
+        <v>545</v>
       </c>
     </row>
     <row r="75" spans="1:12" ht="163.55000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -4771,8 +4825,8 @@
       <c r="K75">
         <v>7</v>
       </c>
-      <c r="L75" t="s">
-        <v>532</v>
+      <c r="L75" s="17" t="s">
+        <v>547</v>
       </c>
     </row>
     <row r="76" spans="1:12" ht="16.3" x14ac:dyDescent="0.3">
@@ -4803,8 +4857,8 @@
       <c r="K76">
         <v>7</v>
       </c>
-      <c r="L76" t="s">
-        <v>527</v>
+      <c r="L76" s="17" t="s">
+        <v>548</v>
       </c>
     </row>
     <row r="77" spans="1:12" ht="16.3" x14ac:dyDescent="0.3">
@@ -4835,8 +4889,8 @@
       <c r="K77">
         <v>7</v>
       </c>
-      <c r="L77" t="s">
-        <v>527</v>
+      <c r="L77" s="17" t="s">
+        <v>549</v>
       </c>
     </row>
     <row r="78" spans="1:12" ht="149.30000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -4869,8 +4923,8 @@
       <c r="K78">
         <v>7</v>
       </c>
-      <c r="L78" t="s">
-        <v>522</v>
+      <c r="L78" s="17" t="s">
+        <v>550</v>
       </c>
     </row>
     <row r="79" spans="1:12" ht="32.6" x14ac:dyDescent="0.3">
@@ -4901,8 +4955,8 @@
       <c r="K79">
         <v>7</v>
       </c>
-      <c r="L79" t="s">
-        <v>537</v>
+      <c r="L79" s="17" t="s">
+        <v>551</v>
       </c>
     </row>
     <row r="80" spans="1:12" ht="16.3" x14ac:dyDescent="0.3">
@@ -4933,8 +4987,8 @@
       <c r="K80">
         <v>7</v>
       </c>
-      <c r="L80" t="s">
-        <v>537</v>
+      <c r="L80" s="17" t="s">
+        <v>552</v>
       </c>
     </row>
     <row r="81" spans="1:12" ht="16.3" x14ac:dyDescent="0.3">
@@ -4965,8 +5019,8 @@
       <c r="K81">
         <v>7</v>
       </c>
-      <c r="L81" t="s">
-        <v>537</v>
+      <c r="L81" s="17" t="s">
+        <v>549</v>
       </c>
     </row>
     <row r="82" spans="1:12" ht="16.3" x14ac:dyDescent="0.3">
@@ -4997,8 +5051,8 @@
       <c r="K82">
         <v>7</v>
       </c>
-      <c r="L82" t="s">
-        <v>537</v>
+      <c r="L82" s="17" t="s">
+        <v>548</v>
       </c>
     </row>
     <row r="83" spans="1:12" ht="144.69999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -5031,8 +5085,8 @@
       <c r="K83">
         <v>7</v>
       </c>
-      <c r="L83" t="s">
-        <v>537</v>
+      <c r="L83" s="17" t="s">
+        <v>548</v>
       </c>
     </row>
     <row r="84" spans="1:12" ht="122.3" customHeight="1" x14ac:dyDescent="0.3">
@@ -5063,8 +5117,8 @@
       <c r="K84">
         <v>7</v>
       </c>
-      <c r="L84" t="s">
-        <v>529</v>
+      <c r="L84" s="17" t="s">
+        <v>547</v>
       </c>
     </row>
     <row r="85" spans="1:12" ht="16.3" x14ac:dyDescent="0.3">
@@ -5095,8 +5149,8 @@
       <c r="K85">
         <v>7</v>
       </c>
-      <c r="L85" t="s">
-        <v>529</v>
+      <c r="L85" s="17" t="s">
+        <v>547</v>
       </c>
     </row>
     <row r="86" spans="1:12" ht="16.3" x14ac:dyDescent="0.3">
@@ -5127,8 +5181,8 @@
       <c r="K86">
         <v>7</v>
       </c>
-      <c r="L86" t="s">
-        <v>529</v>
+      <c r="L86" s="17" t="s">
+        <v>548</v>
       </c>
     </row>
     <row r="87" spans="1:12" ht="16.3" x14ac:dyDescent="0.3">
@@ -5159,8 +5213,8 @@
       <c r="K87">
         <v>7</v>
       </c>
-      <c r="L87" t="s">
-        <v>529</v>
+      <c r="L87" s="17" t="s">
+        <v>548</v>
       </c>
     </row>
     <row r="88" spans="1:12" ht="145.55000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -5193,8 +5247,8 @@
       <c r="K88">
         <v>7</v>
       </c>
-      <c r="L88" t="s">
-        <v>529</v>
+      <c r="L88" s="17" t="s">
+        <v>548</v>
       </c>
     </row>
     <row r="89" spans="1:12" ht="16.3" x14ac:dyDescent="0.3">
@@ -5225,8 +5279,8 @@
       <c r="K89">
         <v>7</v>
       </c>
-      <c r="L89" t="s">
-        <v>529</v>
+      <c r="L89" s="17" t="s">
+        <v>549</v>
       </c>
     </row>
     <row r="90" spans="1:12" ht="16.3" x14ac:dyDescent="0.3">
@@ -5257,8 +5311,8 @@
       <c r="K90">
         <v>7</v>
       </c>
-      <c r="L90" t="s">
-        <v>529</v>
+      <c r="L90" s="17" t="s">
+        <v>549</v>
       </c>
     </row>
     <row r="91" spans="1:12" ht="131.94999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -5291,8 +5345,8 @@
       <c r="K91">
         <v>7</v>
       </c>
-      <c r="L91" t="s">
-        <v>529</v>
+      <c r="L91" s="17" t="s">
+        <v>549</v>
       </c>
     </row>
     <row r="92" spans="1:12" ht="16.3" x14ac:dyDescent="0.3">
@@ -5323,8 +5377,8 @@
       <c r="K92">
         <v>7</v>
       </c>
-      <c r="L92" t="s">
-        <v>529</v>
+      <c r="L92" s="17" t="s">
+        <v>549</v>
       </c>
     </row>
     <row r="93" spans="1:12" ht="16.3" x14ac:dyDescent="0.3">
@@ -5355,8 +5409,8 @@
       <c r="K93">
         <v>7</v>
       </c>
-      <c r="L93" t="s">
-        <v>529</v>
+      <c r="L93" s="17" t="s">
+        <v>549</v>
       </c>
     </row>
     <row r="94" spans="1:12" ht="16.3" x14ac:dyDescent="0.3">
@@ -5387,8 +5441,8 @@
       <c r="K94">
         <v>7</v>
       </c>
-      <c r="L94" t="s">
-        <v>529</v>
+      <c r="L94" s="17" t="s">
+        <v>551</v>
       </c>
     </row>
     <row r="95" spans="1:12" ht="173.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -5421,8 +5475,8 @@
       <c r="K95">
         <v>7</v>
       </c>
-      <c r="L95" t="s">
-        <v>529</v>
+      <c r="L95" s="17" t="s">
+        <v>551</v>
       </c>
     </row>
     <row r="96" spans="1:12" ht="16.3" x14ac:dyDescent="0.3">
@@ -5453,8 +5507,8 @@
       <c r="K96">
         <v>7</v>
       </c>
-      <c r="L96" t="s">
-        <v>529</v>
+      <c r="L96" s="17" t="s">
+        <v>551</v>
       </c>
     </row>
     <row r="97" spans="1:12" ht="16.3" x14ac:dyDescent="0.3">
@@ -5485,8 +5539,8 @@
       <c r="K97">
         <v>7</v>
       </c>
-      <c r="L97" t="s">
-        <v>529</v>
+      <c r="L97" s="17" t="s">
+        <v>551</v>
       </c>
     </row>
     <row r="98" spans="1:12" ht="16.3" x14ac:dyDescent="0.3">
@@ -5517,8 +5571,8 @@
       <c r="K98">
         <v>7</v>
       </c>
-      <c r="L98" t="s">
-        <v>529</v>
+      <c r="L98" s="17" t="s">
+        <v>552</v>
       </c>
     </row>
     <row r="99" spans="1:12" ht="32.6" x14ac:dyDescent="0.3">
@@ -5549,8 +5603,8 @@
       <c r="K99">
         <v>7</v>
       </c>
-      <c r="L99" t="s">
-        <v>529</v>
+      <c r="L99" s="17" t="s">
+        <v>552</v>
       </c>
     </row>
     <row r="100" spans="1:12" ht="164.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -5583,8 +5637,8 @@
       <c r="K100">
         <v>7</v>
       </c>
-      <c r="L100" t="s">
-        <v>529</v>
+      <c r="L100" s="17" t="s">
+        <v>552</v>
       </c>
     </row>
     <row r="101" spans="1:12" ht="16.3" x14ac:dyDescent="0.3">
@@ -5615,8 +5669,8 @@
       <c r="K101">
         <v>7</v>
       </c>
-      <c r="L101" t="s">
-        <v>529</v>
+      <c r="L101" s="17" t="s">
+        <v>551</v>
       </c>
     </row>
   </sheetData>

--- a/server/src/uploads/excels/523625/exam.2.mini-test2.xlsx
+++ b/server/src/uploads/excels/523625/exam.2.mini-test2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\Project\toeic_prep\server\src\uploads\excels\523625\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CF68880-DAD5-41B9-9221-ADFBCD23BD8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A34F988-D3F4-45C8-9B1F-D2CC04C62924}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-109" yWindow="-109" windowWidth="26301" windowHeight="14169" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="25974" yWindow="-163" windowWidth="26301" windowHeight="14169" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="750" uniqueCount="553">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="752" uniqueCount="555">
   <si>
     <t>number</t>
   </si>
@@ -1871,6 +1871,87 @@
   <si>
     <t>InformationRelationship</t>
   </si>
+  <si>
+    <t>transcript</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Speaker 1:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos"/>
+        <family val="2"/>
+      </rPr>
+      <t>How do you like our new brochure? Doesn't it look very nice?</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+Speaker 2:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos"/>
+        <family val="2"/>
+      </rPr>
+      <t>Yes, it's much better than the old one we used to have. I especially like the pictures. Did we get them done professionally?</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+Speaker 1:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos"/>
+        <family val="2"/>
+      </rPr>
+      <t>No, and that's what's great about it. John from the sales department is a semi-pro in photography. He took all the pictures for us.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+Speaker 2:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos"/>
+        <family val="2"/>
+      </rPr>
+      <t>Wow, he is good. He should have pursued a career in photography. It's really good.</t>
+    </r>
+  </si>
 </sst>
 </file>
 
@@ -1879,7 +1960,7 @@
   <numFmts count="1">
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1935,6 +2016,19 @@
       <name val="Consolas"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1988,7 +2082,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -2018,6 +2112,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2323,10 +2427,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L101"/>
+  <dimension ref="A1:N101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A96" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="L101" sqref="L1:L101"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="N16" sqref="N16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
@@ -2343,7 +2447,7 @@
     <col min="10" max="10" width="13.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="16.3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" ht="16.3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2380,8 +2484,11 @@
       <c r="L1" s="16" t="s">
         <v>521</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" ht="16.3" x14ac:dyDescent="0.3">
+      <c r="M1" s="18" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="16.3" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -2417,7 +2524,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="16.3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" ht="16.3" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -2451,7 +2558,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="16.3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" ht="16.3" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -2485,7 +2592,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="16.3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" ht="16.3" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -2519,7 +2626,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="16.3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" ht="16.3" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -2551,7 +2658,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="16.3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" ht="16.3" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -2583,7 +2690,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="16.3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" ht="16.3" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -2615,7 +2722,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="16.3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" ht="16.3" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -2647,7 +2754,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="16.3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" ht="16.3" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -2679,7 +2786,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="16.3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" ht="16.3" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -2711,7 +2818,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="16.3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" ht="16.3" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -2743,7 +2850,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="16.3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" ht="16.3" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -2775,7 +2882,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="16.3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" ht="16.3" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -2807,7 +2914,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="16.3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" ht="16.3" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -2839,7 +2946,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="16.3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -2874,8 +2981,11 @@
       <c r="L16" s="17" t="s">
         <v>528</v>
       </c>
-    </row>
-    <row r="17" spans="1:12" ht="16.3" x14ac:dyDescent="0.3">
+      <c r="N16" s="21" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" ht="16.3" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -2908,8 +3018,9 @@
       <c r="L17" s="17" t="s">
         <v>528</v>
       </c>
-    </row>
-    <row r="18" spans="1:12" ht="16.3" x14ac:dyDescent="0.3">
+      <c r="N17" s="20"/>
+    </row>
+    <row r="18" spans="1:14" ht="16.3" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -2942,8 +3053,9 @@
       <c r="L18" s="17" t="s">
         <v>528</v>
       </c>
-    </row>
-    <row r="19" spans="1:12" ht="16.3" x14ac:dyDescent="0.3">
+      <c r="N18" s="19"/>
+    </row>
+    <row r="19" spans="1:14" ht="16.3" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -2976,8 +3088,9 @@
       <c r="L19" t="s">
         <v>529</v>
       </c>
-    </row>
-    <row r="20" spans="1:12" ht="16.3" x14ac:dyDescent="0.3">
+      <c r="N19" s="20"/>
+    </row>
+    <row r="20" spans="1:14" ht="16.3" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -3010,8 +3123,9 @@
       <c r="L20" t="s">
         <v>529</v>
       </c>
-    </row>
-    <row r="21" spans="1:12" ht="16.3" x14ac:dyDescent="0.3">
+      <c r="N20" s="19"/>
+    </row>
+    <row r="21" spans="1:14" ht="16.3" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -3044,8 +3158,9 @@
       <c r="L21" t="s">
         <v>529</v>
       </c>
-    </row>
-    <row r="22" spans="1:12" ht="16.3" x14ac:dyDescent="0.3">
+      <c r="N21" s="20"/>
+    </row>
+    <row r="22" spans="1:14" ht="16.3" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -3078,8 +3193,9 @@
       <c r="L22" s="17" t="s">
         <v>530</v>
       </c>
-    </row>
-    <row r="23" spans="1:12" ht="16.3" x14ac:dyDescent="0.3">
+      <c r="N22" s="19"/>
+    </row>
+    <row r="23" spans="1:14" ht="16.3" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -3112,8 +3228,9 @@
       <c r="L23" s="17" t="s">
         <v>530</v>
       </c>
-    </row>
-    <row r="24" spans="1:12" ht="16.3" x14ac:dyDescent="0.3">
+      <c r="N23" s="20"/>
+    </row>
+    <row r="24" spans="1:14" ht="16.3" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -3147,7 +3264,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="25" spans="1:12" ht="16.3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:14" ht="16.3" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -3181,7 +3298,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="26" spans="1:12" ht="16.3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:14" ht="16.3" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -3215,7 +3332,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="27" spans="1:12" ht="16.3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:14" ht="16.3" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -3249,7 +3366,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="28" spans="1:12" ht="16.3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:14" ht="16.3" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -3283,7 +3400,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="29" spans="1:12" ht="16.3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:14" ht="16.3" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -3317,7 +3434,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="30" spans="1:12" ht="16.3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:14" ht="16.3" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -3351,7 +3468,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="31" spans="1:12" ht="16.3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:14" ht="16.3" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -3385,7 +3502,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="32" spans="1:12" ht="16.3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:14" ht="16.3" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -5675,6 +5792,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/server/src/uploads/excels/523625/exam.2.mini-test2.xlsx
+++ b/server/src/uploads/excels/523625/exam.2.mini-test2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\Project\toeic_prep\server\src\uploads\excels\523625\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A34F988-D3F4-45C8-9B1F-D2CC04C62924}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CED4D63-EF66-4515-AD31-0E6DA02B80C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="25974" yWindow="-163" windowWidth="26301" windowHeight="14169" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="752" uniqueCount="555">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="766" uniqueCount="555">
   <si>
     <t>number</t>
   </si>
@@ -1875,82 +1875,14 @@
     <t>transcript</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Speaker 1:
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Aptos"/>
-        <family val="2"/>
-      </rPr>
-      <t>How do you like our new brochure? Doesn't it look very nice?</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Aptos"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
+    <t>Speaker 1:
+How do you like our new brochure? Doesn't it look very nice?
 Speaker 2:
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Aptos"/>
-        <family val="2"/>
-      </rPr>
-      <t>Yes, it's much better than the old one we used to have. I especially like the pictures. Did we get them done professionally?</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Aptos"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
+Yes, it's much better than the old one we used to have. I especially like the pictures. Did we get them done professionally?
 Speaker 1:
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Aptos"/>
-        <family val="2"/>
-      </rPr>
-      <t>No, and that's what's great about it. John from the sales department is a semi-pro in photography. He took all the pictures for us.</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Aptos"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
+No, and that's what's great about it. John from the sales department is a semi-pro in photography. He took all the pictures for us.
 Speaker 2:
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Aptos"/>
-        <family val="2"/>
-      </rPr>
-      <t>Wow, he is good. He should have pursued a career in photography. It's really good.</t>
-    </r>
+Wow, he is good. He should have pursued a career in photography. It's really good.</t>
   </si>
 </sst>
 </file>
@@ -2113,7 +2045,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2122,6 +2053,9 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2429,8 +2363,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="N16" sqref="N16"/>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="M16" sqref="M16:M30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
@@ -2484,7 +2418,7 @@
       <c r="L1" s="16" t="s">
         <v>521</v>
       </c>
-      <c r="M1" s="18" t="s">
+      <c r="M1" s="16" t="s">
         <v>553</v>
       </c>
     </row>
@@ -2981,11 +2915,12 @@
       <c r="L16" s="17" t="s">
         <v>528</v>
       </c>
-      <c r="N16" s="21" t="s">
+      <c r="M16" s="21" t="s">
         <v>554</v>
       </c>
-    </row>
-    <row r="17" spans="1:14" ht="16.3" x14ac:dyDescent="0.3">
+      <c r="N16" s="20"/>
+    </row>
+    <row r="17" spans="1:14" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -3018,9 +2953,12 @@
       <c r="L17" s="17" t="s">
         <v>528</v>
       </c>
-      <c r="N17" s="20"/>
-    </row>
-    <row r="18" spans="1:14" ht="16.3" x14ac:dyDescent="0.3">
+      <c r="M17" s="21" t="s">
+        <v>554</v>
+      </c>
+      <c r="N17" s="19"/>
+    </row>
+    <row r="18" spans="1:14" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -3053,9 +2991,12 @@
       <c r="L18" s="17" t="s">
         <v>528</v>
       </c>
-      <c r="N18" s="19"/>
-    </row>
-    <row r="19" spans="1:14" ht="16.3" x14ac:dyDescent="0.3">
+      <c r="M18" s="21" t="s">
+        <v>554</v>
+      </c>
+      <c r="N18" s="18"/>
+    </row>
+    <row r="19" spans="1:14" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -3088,9 +3029,12 @@
       <c r="L19" t="s">
         <v>529</v>
       </c>
-      <c r="N19" s="20"/>
-    </row>
-    <row r="20" spans="1:14" ht="16.3" x14ac:dyDescent="0.3">
+      <c r="M19" s="21" t="s">
+        <v>554</v>
+      </c>
+      <c r="N19" s="19"/>
+    </row>
+    <row r="20" spans="1:14" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -3123,9 +3067,12 @@
       <c r="L20" t="s">
         <v>529</v>
       </c>
-      <c r="N20" s="19"/>
-    </row>
-    <row r="21" spans="1:14" ht="16.3" x14ac:dyDescent="0.3">
+      <c r="M20" s="21" t="s">
+        <v>554</v>
+      </c>
+      <c r="N20" s="18"/>
+    </row>
+    <row r="21" spans="1:14" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -3158,9 +3105,12 @@
       <c r="L21" t="s">
         <v>529</v>
       </c>
-      <c r="N21" s="20"/>
-    </row>
-    <row r="22" spans="1:14" ht="16.3" x14ac:dyDescent="0.3">
+      <c r="M21" s="21" t="s">
+        <v>554</v>
+      </c>
+      <c r="N21" s="19"/>
+    </row>
+    <row r="22" spans="1:14" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -3193,9 +3143,12 @@
       <c r="L22" s="17" t="s">
         <v>530</v>
       </c>
-      <c r="N22" s="19"/>
-    </row>
-    <row r="23" spans="1:14" ht="16.3" x14ac:dyDescent="0.3">
+      <c r="M22" s="21" t="s">
+        <v>554</v>
+      </c>
+      <c r="N22" s="18"/>
+    </row>
+    <row r="23" spans="1:14" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -3228,9 +3181,12 @@
       <c r="L23" s="17" t="s">
         <v>530</v>
       </c>
-      <c r="N23" s="20"/>
-    </row>
-    <row r="24" spans="1:14" ht="16.3" x14ac:dyDescent="0.3">
+      <c r="M23" s="21" t="s">
+        <v>554</v>
+      </c>
+      <c r="N23" s="19"/>
+    </row>
+    <row r="24" spans="1:14" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -3263,8 +3219,11 @@
       <c r="L24" s="17" t="s">
         <v>530</v>
       </c>
-    </row>
-    <row r="25" spans="1:14" ht="16.3" x14ac:dyDescent="0.3">
+      <c r="M24" s="21" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -3297,8 +3256,11 @@
       <c r="L25" s="17" t="s">
         <v>530</v>
       </c>
-    </row>
-    <row r="26" spans="1:14" ht="16.3" x14ac:dyDescent="0.3">
+      <c r="M25" s="21" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -3331,8 +3293,11 @@
       <c r="L26" s="17" t="s">
         <v>530</v>
       </c>
-    </row>
-    <row r="27" spans="1:14" ht="16.3" x14ac:dyDescent="0.3">
+      <c r="M26" s="21" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -3365,8 +3330,11 @@
       <c r="L27" s="17" t="s">
         <v>530</v>
       </c>
-    </row>
-    <row r="28" spans="1:14" ht="16.3" x14ac:dyDescent="0.3">
+      <c r="M27" s="21" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -3399,8 +3367,11 @@
       <c r="L28" s="17" t="s">
         <v>531</v>
       </c>
-    </row>
-    <row r="29" spans="1:14" ht="16.3" x14ac:dyDescent="0.3">
+      <c r="M28" s="21" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -3433,8 +3404,11 @@
       <c r="L29" s="17" t="s">
         <v>531</v>
       </c>
-    </row>
-    <row r="30" spans="1:14" ht="16.3" x14ac:dyDescent="0.3">
+      <c r="M29" s="21" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -3466,6 +3440,9 @@
       </c>
       <c r="L30" s="17" t="s">
         <v>531</v>
+      </c>
+      <c r="M30" s="21" t="s">
+        <v>554</v>
       </c>
     </row>
     <row r="31" spans="1:14" ht="16.3" x14ac:dyDescent="0.3">
